--- a/individual_case_outputs/avey/127.xlsx
+++ b/individual_case_outputs/avey/127.xlsx
@@ -1072,7 +1072,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>myocarditis</t>
+          <t>pericarditis</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
